--- a/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
+++ b/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
@@ -393,7 +393,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:22:22Z</t>
+    <t xml:space="preserve">2023-03-07T23:22:22Z</t>
   </si>
   <si>
     <t xml:space="preserve">a1541062d4536257</t>
@@ -413,7 +413,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:22:28Z</t>
+    <t xml:space="preserve">2023-03-07T23:22:28Z</t>
   </si>
   <si>
     <t xml:space="preserve">488423c00df6ace7</t>
@@ -430,7 +430,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:22:34Z</t>
+    <t xml:space="preserve">2023-03-07T23:22:34Z</t>
   </si>
   <si>
     <t xml:space="preserve">209dcb5d6391ab59</t>
@@ -450,7 +450,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:22:39Z</t>
+    <t xml:space="preserve">2023-03-07T23:22:39Z</t>
   </si>
   <si>
     <t xml:space="preserve">a26a7d8950ae674e</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:22:44Z</t>
+    <t xml:space="preserve">2023-03-07T23:22:44Z</t>
   </si>
   <si>
     <t xml:space="preserve">3e9459b3deb7d6ae</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:22:49Z</t>
+    <t xml:space="preserve">2023-03-07T23:22:49Z</t>
   </si>
   <si>
     <t xml:space="preserve">{"type":"https://govway.org/handling-errors/403/AuthorizationContentDeny.html","title":"AuthorizationContentDeny","status":403,"detail":"Unauthorized request content","govway_id":"51a9e956-bd26-11ed-a9a6-005056ae7395"}</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:22:59Z</t>
+    <t xml:space="preserve">2023-03-07T23:22:59Z</t>
   </si>
   <si>
     <t xml:space="preserve">Timeot durante il tentativo di connessione al Gateway per la validazione</t>
@@ -975,7 +975,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:04Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:04Z</t>
   </si>
   <si>
     <t xml:space="preserve">77b07fa1d087cd83</t>
@@ -1006,7 +1006,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:09Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:09Z</t>
   </si>
   <si>
     <t xml:space="preserve">27b40790776231b1</t>
@@ -1038,7 +1038,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:14Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:14Z</t>
   </si>
   <si>
     <t xml:space="preserve">a611084c72450398</t>
@@ -1070,7 +1070,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:19Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:19Z</t>
   </si>
   <si>
     <t xml:space="preserve">d22baf035c2d5400</t>
@@ -1106,7 +1106,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-08T12:24:58Z</t>
+    <t xml:space="preserve">2023-03-08T13:24:58Z</t>
   </si>
   <si>
     <t xml:space="preserve">be24513ac78682b1</t>
@@ -1139,7 +1139,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:30Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:30Z</t>
   </si>
   <si>
     <t xml:space="preserve">f6af25f1efcdd009</t>
@@ -1170,7 +1170,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:35Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:35Z</t>
   </si>
   <si>
     <t xml:space="preserve">2b7878fe8a6568f3</t>
@@ -1201,7 +1201,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:40Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:40Z</t>
   </si>
   <si>
     <t xml:space="preserve">372432c4c53b16c7</t>
@@ -1233,7 +1233,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:45Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:45Z</t>
   </si>
   <si>
     <t xml:space="preserve">aa6f9cf3b449dca5</t>
@@ -1263,7 +1263,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:50Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:50Z</t>
   </si>
   <si>
     <t xml:space="preserve">133ba35dc83886ac</t>
@@ -1294,7 +1294,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:23:55Z</t>
+    <t xml:space="preserve">2023-03-07T23:23:55Z</t>
   </si>
   <si>
     <t xml:space="preserve">a60f0d239c2d1bbe</t>
@@ -1327,7 +1327,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:24:00Z</t>
+    <t xml:space="preserve">2023-03-07T23:24:00Z</t>
   </si>
   <si>
     <t xml:space="preserve">ddca3d413e2ac54d</t>
@@ -1349,25 +1349,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">E’ stato artificiosamente rimosso il tag text all’interno della section </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PRECEDENTI_ESAMI_ESEGUITI</t>
-    </r>
+    <t xml:space="preserve">E’ stato artificiosamente rimosso il tag text all’interno della section PRECEDENTI_ESAMI_ESEGUITI</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT17_KO</t>
@@ -1433,7 +1415,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T22:24:05Z</t>
+    <t xml:space="preserve">2023-03-07T23:24:05Z</t>
   </si>
   <si>
     <t xml:space="preserve">f17e0a15eb0b75bf</t>
@@ -2302,7 +2284,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2378,12 +2360,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
@@ -2391,12 +2367,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2517,7 +2487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2646,20 +2616,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2867,7 +2829,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -3945,14 +3907,14 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
-      <selection pane="bottomRight" activeCell="M199" activeCellId="0" sqref="M199"/>
+      <selection pane="bottomRight" activeCell="G100" activeCellId="0" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -4682,7 +4644,7 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
-      <c r="S22" s="32" t="s">
+      <c r="S22" s="31" t="s">
         <v>83</v>
       </c>
       <c r="T22" s="30" t="s">
@@ -5110,7 +5072,7 @@
       <c r="D35" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F35" s="25"/>
@@ -5144,7 +5106,7 @@
       <c r="D36" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F36" s="25"/>
@@ -5178,7 +5140,7 @@
       <c r="D37" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F37" s="25"/>
@@ -5212,7 +5174,7 @@
       <c r="D38" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F38" s="25" t="n">
@@ -5268,7 +5230,7 @@
       <c r="D39" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="25"/>
@@ -5284,7 +5246,7 @@
       <c r="P39" s="27"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="28"/>
-      <c r="S39" s="34"/>
+      <c r="S39" s="33"/>
       <c r="T39" s="30" t="s">
         <v>118</v>
       </c>
@@ -5302,7 +5264,7 @@
       <c r="D40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F40" s="25"/>
@@ -5336,7 +5298,7 @@
       <c r="D41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F41" s="25"/>
@@ -5370,7 +5332,7 @@
       <c r="D42" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="32" t="s">
         <v>117</v>
       </c>
       <c r="F42" s="25"/>
@@ -5404,7 +5366,7 @@
       <c r="D43" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F43" s="25"/>
@@ -5438,7 +5400,7 @@
       <c r="D44" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F44" s="25"/>
@@ -5472,7 +5434,7 @@
       <c r="D45" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F45" s="25"/>
@@ -5506,7 +5468,7 @@
       <c r="D46" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F46" s="25" t="n">
@@ -5558,7 +5520,7 @@
       <c r="D47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F47" s="25"/>
@@ -5574,7 +5536,7 @@
       <c r="P47" s="27"/>
       <c r="Q47" s="27"/>
       <c r="R47" s="28"/>
-      <c r="S47" s="34"/>
+      <c r="S47" s="33"/>
       <c r="T47" s="30" t="s">
         <v>118</v>
       </c>
@@ -5592,7 +5554,7 @@
       <c r="D48" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F48" s="25"/>
@@ -5626,7 +5588,7 @@
       <c r="D49" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F49" s="25"/>
@@ -5660,7 +5622,7 @@
       <c r="D50" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="32" t="s">
         <v>135</v>
       </c>
       <c r="F50" s="25"/>
@@ -6935,7 +6897,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="268.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="n">
         <v>78</v>
       </c>
@@ -6991,7 +6953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="268.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="22" t="n">
         <v>79</v>
       </c>
@@ -7047,7 +7009,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="174.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="22" t="n">
         <v>80</v>
       </c>
@@ -7103,7 +7065,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="187.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="22" t="n">
         <v>81</v>
       </c>
@@ -7432,7 +7394,7 @@
       </c>
       <c r="Q93" s="27"/>
       <c r="R93" s="28"/>
-      <c r="S93" s="35" t="s">
+      <c r="S93" s="30" t="s">
         <v>300</v>
       </c>
       <c r="T93" s="30" t="s">
@@ -24626,7 +24588,7 @@
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -24650,128 +24612,128 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="36" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="36" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C10" s="37" t="n">
+      <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>540</v>
       </c>
     </row>
@@ -25785,7 +25747,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -25793,26 +25755,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>233</v>
       </c>
     </row>

--- a/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
+++ b/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="545">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -632,27 +632,55 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T23:22:44Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3e9459b3deb7d6ae</t>
+    <t xml:space="preserve">2023-03-10T10:15:14Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3f75b964c0133ed</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">{"traceID":"3e9459b3deb7d6ae","spanID":"3e9459b3deb7d6ae","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo action_id non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type : /msg/jwt-validation
+    <t xml:space="preserve">{"traceID":"a3f75b964c0133ed","spanID":"a3f75b964c0133ed","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/jwt-validation
 title : Campo token JWT non valido.
-detail : Il campo action_id non è valorizzato
+detail : Il campo purpose_of_use non è valorizzato
 status : 403
 instance : /jwt-mandatory-field-missing
 </t>
   </si>
   <si>
-    <t xml:space="preserve">E’ stato rimosso artificiosamente il campo action_id dal JWT</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E’ stato rimosso artificiosamente il campo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">purpose_of_use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dal JWT</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -732,20 +760,52 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T23:22:49Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"type":"https://govway.org/handling-errors/403/AuthorizationContentDeny.html","title":"AuthorizationContentDeny","status":403,"detail":"Unauthorized request content","govway_id":"51a9e956-bd26-11ed-a9a6-005056ae7395"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type : https://govway.org/handling-errors/403/AuthorizationContentDeny.html
-title : AuthorizationContentDeny
-detail : Unauthorized request content
+    <t xml:space="preserve">2023-03-10T10:15:20Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa9ce8e586c093b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"traceID":"aa9ce8e586c093b1","spanID":"aa9ce8e586c093b1","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/jwt-validation
+title : Campo token JWT non valido.
+detail : Il campo action_id non è corretto
 status : 403
+instance : /jwt-mandatory-field-malformed
 </t>
   </si>
   <si>
-    <t xml:space="preserve">E’ stato valorizzato con “TEST” il campo iss del JWT</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E’ stato valorizzato con “TEST” il campo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"action_id" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">del JWT</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
@@ -780,6 +840,9 @@
   </si>
   <si>
     <t xml:space="preserve">Timeot durante il tentativo di connessione al Gateway per la validazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT e LOG con seguente messaggio: Timeot durante il tentativo di connessione al Gateway per la validazione</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -987,12 +1050,30 @@
     <t xml:space="preserve">{"traceID":"77b07fa1d087cd83","spanID":"77b07fa1d087cd83","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ee722b4318^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/syntax
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{"urn:hl7-org:v3":confidentialityCode}' is expected.
 status : 400
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso l’intero tag confidentialityCode</t>
@@ -1018,7 +1099,24 @@
     <t xml:space="preserve">{"traceID":"27b40790776231b1","spanID":"27b40790776231b1","type":"/msg/semantic","title":"Errore semantico.","detail":"[Errore-46| codice fiscale 'vllnrc75l27c129o' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fad30122d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [Errore-46| codice fiscale 'vllnrc75l27c129o' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1026,6 +1124,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato inserito artificiosamente un codice fiscale con caratteri minuscoli sia nel JWT che nel CDA2</t>
@@ -1050,7 +1149,24 @@
     <t xml:space="preserve">{"traceID":"a611084c72450398","spanID":"a611084c72450398","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.82c5f20513^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1058,6 +1174,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato inserito artificiosamente il valore “R”: “Rescticted” nel campo confidentialityCode</t>
@@ -1085,7 +1202,24 @@
     <t xml:space="preserve">{"traceID":"d22baf035c2d5400","spanID":"d22baf035c2d5400","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4e9b8059a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1093,6 +1227,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso artificiosamente il tag &lt;city&gt; dall’indirizzo</t>
@@ -1118,7 +1253,24 @@
     <t xml:space="preserve">{"traceID":"be24513ac78682b1","spanID":"be24513ac78682b1","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ca85888fcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1126,6 +1278,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso artificiosamente il tag &lt;given&gt;</t>
@@ -1151,12 +1304,30 @@
     <t xml:space="preserve">{"traceID":"f6af25f1efcdd009","spanID":"f6af25f1efcdd009","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: O]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b1b4865666^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/vocabulary
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/vocabulary
 title : Errore vocabolario.
 detail : Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: O]
 status : 400
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">All’interno dell’attributo code del tag administrativeGenderCode è stato forzato il valore “O”</t>
@@ -1182,12 +1353,30 @@
     <t xml:space="preserve">{"traceID":"2b7878fe8a6568f3","spanID":"2b7878fe8a6568f3","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: CODICE]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e287d36443^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/vocabulary
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/vocabulary
 title : Errore vocabolario.
 detail : Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: CODICE]
 status : 400
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ Sstato forzato il valore CODICE all’interno dell’attributo code del tag participant</t>
@@ -1213,7 +1402,24 @@
     <t xml:space="preserve">{"traceID":"372432c4c53b16c7","spanID":"372432c4c53b16c7","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0cb8abc55d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1221,6 +1427,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Il campo priorityCode è stato riampito col valore “T”: "Timing critical”</t>
@@ -1245,12 +1452,30 @@
     <t xml:space="preserve">{"traceID":"aa6f9cf3b449dca5","spanID":"aa6f9cf3b449dca5","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f9a91b8868^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/syntax
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id}' is expected.
 status : 400
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag id all’interno del tag inFulfillmentOf</t>
@@ -1275,12 +1500,30 @@
     <t xml:space="preserve">{"traceID":"133ba35dc83886ac","spanID":"133ba35dc83886ac","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'text'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.28ccfdf49d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/syntax
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'text'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id, "urn:hl7-org:v3":code}' is expected.
 status : 400
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag code all’interno del tag act</t>
@@ -1306,7 +1549,24 @@
     <t xml:space="preserve">{"traceID":"a60f0d239c2d1bbe","spanID":"a60f0d239c2d1bbe","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ca0033b4f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1314,6 +1574,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag text all’interno del referto</t>
@@ -1339,14 +1600,32 @@
     <t xml:space="preserve">{"traceID":"ddca3d413e2ac54d","spanID":"ddca3d413e2ac54d","type":"/msg/semantic","title":"Errore semantico.","detail":"[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4758ea11dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
 			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]
 status : 422
 instance : /validation/error
-</t>
+2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag text all’interno della section PRECEDENTI_ESAMI_ESEGUITI</t>
@@ -1427,7 +1706,24 @@
     <t xml:space="preserve">{"traceID":"f17e0a15eb0b75bf","spanID":"f17e0a15eb0b75bf","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8bd8bf0317^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LOG con seguente messaggio: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1435,6 +1731,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stata artificiosamente settata la tipologia d’accesso col valore “ACAC”</t>
@@ -2284,7 +2581,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2367,6 +2664,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2487,7 +2790,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2624,6 +2927,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2829,7 +3136,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -3907,14 +4214,14 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
-      <selection pane="bottomRight" activeCell="G100" activeCellId="0" sqref="G100"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="S46" activeCellId="0" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -5161,7 +5468,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="148.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
         <v>31</v>
       </c>
@@ -5178,7 +5485,7 @@
         <v>117</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>123</v>
@@ -5455,7 +5762,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
         <v>39</v>
       </c>
@@ -5472,13 +5779,17 @@
         <v>135</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
+      <c r="H46" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="J46" s="27" t="s">
         <v>72</v>
       </c>
@@ -5490,18 +5801,18 @@
         <v>72</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q46" s="27"/>
       <c r="R46" s="28"/>
       <c r="S46" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T46" s="30" t="s">
         <v>118</v>
@@ -5518,7 +5829,7 @@
         <v>129</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>135</v>
@@ -5552,7 +5863,7 @@
         <v>89</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48" s="32" t="s">
         <v>135</v>
@@ -5586,7 +5897,7 @@
         <v>98</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E49" s="32" t="s">
         <v>135</v>
@@ -5620,7 +5931,7 @@
         <v>107</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>135</v>
@@ -5654,10 +5965,10 @@
         <v>45</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="26"/>
@@ -5690,10 +6001,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="F52" s="25"/>
       <c r="G52" s="26"/>
@@ -5726,10 +6037,10 @@
         <v>120</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="26"/>
@@ -5751,7 +6062,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="n">
         <v>47</v>
       </c>
@@ -5762,16 +6073,16 @@
         <v>66</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F54" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
@@ -5786,13 +6097,13 @@
         <v>72</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O54" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P54" s="27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q54" s="27"/>
       <c r="R54" s="28" t="s">
@@ -5814,10 +6125,10 @@
         <v>129</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="26"/>
@@ -5850,10 +6161,10 @@
         <v>89</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="26"/>
@@ -5886,10 +6197,10 @@
         <v>98</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="26"/>
@@ -5922,10 +6233,10 @@
         <v>107</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="26"/>
@@ -5958,10 +6269,10 @@
         <v>45</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="26"/>
@@ -5992,10 +6303,10 @@
         <v>45</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="26"/>
@@ -6026,10 +6337,10 @@
         <v>45</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="26"/>
@@ -6060,10 +6371,10 @@
         <v>45</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="26"/>
@@ -6094,10 +6405,10 @@
         <v>45</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="26"/>
@@ -6128,10 +6439,10 @@
         <v>45</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="26"/>
@@ -6162,10 +6473,10 @@
         <v>45</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="26"/>
@@ -6196,10 +6507,10 @@
         <v>45</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F66" s="25"/>
       <c r="G66" s="26"/>
@@ -6230,10 +6541,10 @@
         <v>45</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="26"/>
@@ -6264,10 +6575,10 @@
         <v>45</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="26"/>
@@ -6298,10 +6609,10 @@
         <v>45</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
@@ -6332,10 +6643,10 @@
         <v>57</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="26"/>
@@ -6366,10 +6677,10 @@
         <v>57</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="26"/>
@@ -6400,10 +6711,10 @@
         <v>57</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="26"/>
@@ -6434,10 +6745,10 @@
         <v>57</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="26"/>
@@ -6468,10 +6779,10 @@
         <v>57</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="26"/>
@@ -6502,10 +6813,10 @@
         <v>57</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="26"/>
@@ -6536,10 +6847,10 @@
         <v>57</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="26"/>
@@ -6570,10 +6881,10 @@
         <v>57</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="26"/>
@@ -6604,10 +6915,10 @@
         <v>57</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="26"/>
@@ -6638,10 +6949,10 @@
         <v>57</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F79" s="25"/>
       <c r="G79" s="26"/>
@@ -6672,10 +6983,10 @@
         <v>57</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F80" s="25"/>
       <c r="G80" s="26"/>
@@ -6706,10 +7017,10 @@
         <v>57</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F81" s="25"/>
       <c r="G81" s="26"/>
@@ -6729,7 +7040,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="187.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="22" t="n">
         <v>75</v>
       </c>
@@ -6740,22 +7051,22 @@
         <v>66</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F82" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J82" s="27" t="s">
         <v>72</v>
@@ -6768,24 +7079,24 @@
         <v>72</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O82" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P82" s="27" t="s">
-        <v>210</v>
+      <c r="P82" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="Q82" s="27"/>
       <c r="R82" s="28"/>
       <c r="S82" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T82" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="22" t="n">
         <v>76</v>
       </c>
@@ -6796,22 +7107,22 @@
         <v>66</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F83" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J83" s="27" t="s">
         <v>72</v>
@@ -6824,24 +7135,24 @@
         <v>72</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O83" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P83" s="27" t="s">
-        <v>218</v>
+      <c r="P83" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="Q83" s="27"/>
       <c r="R83" s="28"/>
       <c r="S83" s="30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T83" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="309.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="n">
         <v>77</v>
       </c>
@@ -6852,22 +7163,22 @@
         <v>66</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F84" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J84" s="27" t="s">
         <v>72</v>
@@ -6880,24 +7191,24 @@
         <v>72</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O84" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P84" s="27" t="s">
-        <v>226</v>
+      <c r="P84" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="Q84" s="27"/>
       <c r="R84" s="28"/>
       <c r="S84" s="30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="T84" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="281.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="n">
         <v>78</v>
       </c>
@@ -6908,22 +7219,22 @@
         <v>66</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F85" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J85" s="27" t="s">
         <v>72</v>
@@ -6933,27 +7244,27 @@
         <v>72</v>
       </c>
       <c r="M85" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N85" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O85" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P85" s="27" t="s">
-        <v>235</v>
+      <c r="P85" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="Q85" s="27"/>
       <c r="R85" s="28"/>
       <c r="S85" s="30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T85" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="281.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="22" t="n">
         <v>79</v>
       </c>
@@ -6964,22 +7275,22 @@
         <v>66</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F86" s="25" t="n">
         <v>44993</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J86" s="27" t="s">
         <v>72</v>
@@ -6989,27 +7300,27 @@
         <v>72</v>
       </c>
       <c r="M86" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N86" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O86" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P86" s="27" t="s">
-        <v>243</v>
+      <c r="P86" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="Q86" s="27"/>
       <c r="R86" s="28"/>
       <c r="S86" s="30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="T86" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="174.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="22" t="n">
         <v>80</v>
       </c>
@@ -7020,22 +7331,22 @@
         <v>66</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F87" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J87" s="27" t="s">
         <v>72</v>
@@ -7045,27 +7356,27 @@
         <v>72</v>
       </c>
       <c r="M87" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N87" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O87" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P87" s="27" t="s">
-        <v>251</v>
+      <c r="P87" s="34" t="s">
+        <v>253</v>
       </c>
       <c r="Q87" s="27"/>
       <c r="R87" s="28"/>
       <c r="S87" s="30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="T87" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="187.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="22" t="n">
         <v>81</v>
       </c>
@@ -7076,22 +7387,22 @@
         <v>66</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F88" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J88" s="27" t="s">
         <v>72</v>
@@ -7101,27 +7412,27 @@
         <v>72</v>
       </c>
       <c r="M88" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O88" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P88" s="27" t="s">
-        <v>259</v>
+      <c r="P88" s="34" t="s">
+        <v>261</v>
       </c>
       <c r="Q88" s="27"/>
       <c r="R88" s="28"/>
       <c r="S88" s="30" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="T88" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="309.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="22" t="n">
         <v>82</v>
       </c>
@@ -7132,22 +7443,22 @@
         <v>66</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F89" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J89" s="27" t="s">
         <v>72</v>
@@ -7160,24 +7471,24 @@
         <v>72</v>
       </c>
       <c r="N89" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O89" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P89" s="27" t="s">
-        <v>267</v>
+      <c r="P89" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="Q89" s="27"/>
       <c r="R89" s="28"/>
       <c r="S89" s="30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="T89" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="228.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="22" t="n">
         <v>83</v>
       </c>
@@ -7188,22 +7499,22 @@
         <v>66</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F90" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J90" s="27" t="s">
         <v>72</v>
@@ -7216,24 +7527,24 @@
         <v>72</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O90" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P90" s="27" t="s">
-        <v>275</v>
+      <c r="P90" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="Q90" s="27"/>
       <c r="R90" s="28"/>
       <c r="S90" s="30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T90" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="214.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="22" t="n">
         <v>84</v>
       </c>
@@ -7244,22 +7555,22 @@
         <v>66</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F91" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J91" s="27" t="s">
         <v>72</v>
@@ -7272,24 +7583,24 @@
         <v>72</v>
       </c>
       <c r="N91" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O91" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P91" s="27" t="s">
-        <v>283</v>
+      <c r="P91" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="Q91" s="27"/>
       <c r="R91" s="28"/>
       <c r="S91" s="30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="T91" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="22" t="n">
         <v>85</v>
       </c>
@@ -7300,22 +7611,22 @@
         <v>66</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F92" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J92" s="27" t="s">
         <v>72</v>
@@ -7328,24 +7639,24 @@
         <v>72</v>
       </c>
       <c r="N92" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O92" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P92" s="27" t="s">
-        <v>291</v>
+      <c r="P92" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="Q92" s="27"/>
       <c r="R92" s="28"/>
       <c r="S92" s="30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="T92" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="22" t="n">
         <v>86</v>
       </c>
@@ -7356,22 +7667,22 @@
         <v>66</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F93" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J93" s="27" t="s">
         <v>72</v>
@@ -7384,18 +7695,18 @@
         <v>72</v>
       </c>
       <c r="N93" s="27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O93" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P93" s="27" t="s">
-        <v>299</v>
+      <c r="P93" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="Q93" s="27"/>
       <c r="R93" s="28"/>
       <c r="S93" s="30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T93" s="30" t="s">
         <v>118</v>
@@ -7412,20 +7723,20 @@
         <v>66</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
       <c r="J94" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K94" s="31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L94" s="27"/>
       <c r="M94" s="27"/>
@@ -7450,20 +7761,20 @@
         <v>66</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
       <c r="J95" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K95" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L95" s="27"/>
       <c r="M95" s="27"/>
@@ -7488,20 +7799,20 @@
         <v>66</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
       <c r="J96" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L96" s="27"/>
       <c r="M96" s="27"/>
@@ -7526,20 +7837,20 @@
         <v>66</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F97" s="25"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
       <c r="J97" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K97" s="31" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L97" s="27"/>
       <c r="M97" s="27"/>
@@ -7564,20 +7875,20 @@
         <v>66</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F98" s="25"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K98" s="31" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L98" s="27"/>
       <c r="M98" s="27"/>
@@ -7602,20 +7913,20 @@
         <v>66</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F99" s="25"/>
       <c r="G99" s="26"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K99" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L99" s="27"/>
       <c r="M99" s="27"/>
@@ -7629,7 +7940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="321.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="22" t="n">
         <v>93</v>
       </c>
@@ -7640,22 +7951,22 @@
         <v>66</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F100" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J100" s="27" t="s">
         <v>72</v>
@@ -7668,18 +7979,18 @@
         <v>72</v>
       </c>
       <c r="N100" s="27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O100" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P100" s="27" t="s">
-        <v>322</v>
+      <c r="P100" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="Q100" s="27"/>
       <c r="R100" s="28"/>
       <c r="S100" s="30" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="T100" s="30" t="s">
         <v>118</v>
@@ -7696,10 +8007,10 @@
         <v>89</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="26"/>
@@ -7730,10 +8041,10 @@
         <v>89</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="26"/>
@@ -7764,10 +8075,10 @@
         <v>89</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="26"/>
@@ -7798,10 +8109,10 @@
         <v>89</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="26"/>
@@ -7832,10 +8143,10 @@
         <v>89</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="26"/>
@@ -7866,10 +8177,10 @@
         <v>89</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F106" s="25"/>
       <c r="G106" s="26"/>
@@ -7900,10 +8211,10 @@
         <v>89</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F107" s="25"/>
       <c r="G107" s="26"/>
@@ -7934,10 +8245,10 @@
         <v>89</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F108" s="25"/>
       <c r="G108" s="26"/>
@@ -7968,10 +8279,10 @@
         <v>89</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F109" s="25"/>
       <c r="G109" s="26"/>
@@ -8002,10 +8313,10 @@
         <v>89</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F110" s="25"/>
       <c r="G110" s="26"/>
@@ -8036,10 +8347,10 @@
         <v>89</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F111" s="25"/>
       <c r="G111" s="26"/>
@@ -8070,10 +8381,10 @@
         <v>89</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F112" s="25"/>
       <c r="G112" s="26"/>
@@ -8104,10 +8415,10 @@
         <v>89</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F113" s="25"/>
       <c r="G113" s="26"/>
@@ -8138,10 +8449,10 @@
         <v>98</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F114" s="25"/>
       <c r="G114" s="26"/>
@@ -8172,10 +8483,10 @@
         <v>98</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F115" s="25"/>
       <c r="G115" s="26"/>
@@ -8206,10 +8517,10 @@
         <v>98</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F116" s="25"/>
       <c r="G116" s="26"/>
@@ -8240,10 +8551,10 @@
         <v>98</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F117" s="25"/>
       <c r="G117" s="26"/>
@@ -8274,10 +8585,10 @@
         <v>98</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F118" s="25"/>
       <c r="G118" s="26"/>
@@ -8308,10 +8619,10 @@
         <v>98</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F119" s="25"/>
       <c r="G119" s="26"/>
@@ -8342,10 +8653,10 @@
         <v>98</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F120" s="25"/>
       <c r="G120" s="26"/>
@@ -8376,10 +8687,10 @@
         <v>98</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F121" s="25"/>
       <c r="G121" s="26"/>
@@ -8410,10 +8721,10 @@
         <v>98</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F122" s="25"/>
       <c r="G122" s="26"/>
@@ -8444,10 +8755,10 @@
         <v>98</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F123" s="25"/>
       <c r="G123" s="26"/>
@@ -8478,10 +8789,10 @@
         <v>98</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F124" s="25"/>
       <c r="G124" s="26"/>
@@ -8512,10 +8823,10 @@
         <v>98</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F125" s="25"/>
       <c r="G125" s="26"/>
@@ -8546,10 +8857,10 @@
         <v>98</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F126" s="25"/>
       <c r="G126" s="26"/>
@@ -8580,10 +8891,10 @@
         <v>98</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F127" s="25"/>
       <c r="G127" s="26"/>
@@ -8614,10 +8925,10 @@
         <v>98</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F128" s="25"/>
       <c r="G128" s="26"/>
@@ -8648,10 +8959,10 @@
         <v>107</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F129" s="25"/>
       <c r="G129" s="26"/>
@@ -8682,10 +8993,10 @@
         <v>107</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F130" s="25"/>
       <c r="G130" s="26"/>
@@ -8716,10 +9027,10 @@
         <v>107</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F131" s="25"/>
       <c r="G131" s="26"/>
@@ -8750,10 +9061,10 @@
         <v>107</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F132" s="25"/>
       <c r="G132" s="26"/>
@@ -8784,10 +9095,10 @@
         <v>107</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F133" s="25"/>
       <c r="G133" s="26"/>
@@ -8818,10 +9129,10 @@
         <v>107</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F134" s="25"/>
       <c r="G134" s="26"/>
@@ -8852,10 +9163,10 @@
         <v>107</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F135" s="25"/>
       <c r="G135" s="26"/>
@@ -8886,10 +9197,10 @@
         <v>107</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F136" s="25"/>
       <c r="G136" s="26"/>
@@ -8920,10 +9231,10 @@
         <v>107</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F137" s="25"/>
       <c r="G137" s="26"/>
@@ -8954,10 +9265,10 @@
         <v>107</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F138" s="25"/>
       <c r="G138" s="26"/>
@@ -8988,10 +9299,10 @@
         <v>107</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="26"/>
@@ -9022,10 +9333,10 @@
         <v>107</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F140" s="25"/>
       <c r="G140" s="26"/>
@@ -9056,10 +9367,10 @@
         <v>107</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F141" s="25"/>
       <c r="G141" s="26"/>
@@ -9090,10 +9401,10 @@
         <v>107</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F142" s="25"/>
       <c r="G142" s="26"/>
@@ -9124,10 +9435,10 @@
         <v>107</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F143" s="25"/>
       <c r="G143" s="26"/>
@@ -9158,10 +9469,10 @@
         <v>107</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="26"/>
@@ -9192,10 +9503,10 @@
         <v>107</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F145" s="25"/>
       <c r="G145" s="26"/>
@@ -9226,10 +9537,10 @@
         <v>107</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F146" s="25"/>
       <c r="G146" s="26"/>
@@ -9260,10 +9571,10 @@
         <v>107</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F147" s="25"/>
       <c r="G147" s="26"/>
@@ -9294,10 +9605,10 @@
         <v>107</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F148" s="25"/>
       <c r="G148" s="26"/>
@@ -9328,10 +9639,10 @@
         <v>107</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F149" s="25"/>
       <c r="G149" s="26"/>
@@ -9362,10 +9673,10 @@
         <v>107</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E150" s="24" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F150" s="25"/>
       <c r="G150" s="26"/>
@@ -9396,10 +9707,10 @@
         <v>107</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E151" s="24" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F151" s="25"/>
       <c r="G151" s="26"/>
@@ -9430,10 +9741,10 @@
         <v>107</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F152" s="25"/>
       <c r="G152" s="26"/>
@@ -9464,10 +9775,10 @@
         <v>107</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F153" s="25"/>
       <c r="G153" s="26"/>
@@ -9498,10 +9809,10 @@
         <v>129</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F154" s="25"/>
       <c r="G154" s="26"/>
@@ -9532,10 +9843,10 @@
         <v>129</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F155" s="25"/>
       <c r="G155" s="26"/>
@@ -9566,10 +9877,10 @@
         <v>129</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F156" s="25"/>
       <c r="G156" s="26"/>
@@ -9600,10 +9911,10 @@
         <v>129</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F157" s="25"/>
       <c r="G157" s="26"/>
@@ -9634,10 +9945,10 @@
         <v>129</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F158" s="25"/>
       <c r="G158" s="26"/>
@@ -9668,10 +9979,10 @@
         <v>129</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E159" s="24" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="26"/>
@@ -9702,10 +10013,10 @@
         <v>129</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E160" s="24" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F160" s="25"/>
       <c r="G160" s="26"/>
@@ -9736,10 +10047,10 @@
         <v>129</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F161" s="25"/>
       <c r="G161" s="26"/>
@@ -9770,10 +10081,10 @@
         <v>129</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F162" s="25"/>
       <c r="G162" s="26"/>
@@ -9804,10 +10115,10 @@
         <v>129</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F163" s="25"/>
       <c r="G163" s="26"/>
@@ -9838,10 +10149,10 @@
         <v>129</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F164" s="25"/>
       <c r="G164" s="26"/>
@@ -9872,10 +10183,10 @@
         <v>129</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F165" s="25"/>
       <c r="G165" s="26"/>
@@ -9906,10 +10217,10 @@
         <v>129</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F166" s="25"/>
       <c r="G166" s="26"/>
@@ -9940,10 +10251,10 @@
         <v>129</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F167" s="25"/>
       <c r="G167" s="26"/>
@@ -9974,10 +10285,10 @@
         <v>129</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F168" s="25"/>
       <c r="G168" s="26"/>
@@ -10008,10 +10319,10 @@
         <v>129</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F169" s="25"/>
       <c r="G169" s="26"/>
@@ -10042,10 +10353,10 @@
         <v>129</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F170" s="25"/>
       <c r="G170" s="26"/>
@@ -10076,10 +10387,10 @@
         <v>129</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E171" s="24" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F171" s="25"/>
       <c r="G171" s="26"/>
@@ -10110,10 +10421,10 @@
         <v>129</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F172" s="25"/>
       <c r="G172" s="26"/>
@@ -10144,10 +10455,10 @@
         <v>129</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F173" s="25"/>
       <c r="G173" s="26"/>
@@ -10178,10 +10489,10 @@
         <v>129</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E174" s="24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F174" s="25"/>
       <c r="G174" s="26"/>
@@ -10212,10 +10523,10 @@
         <v>129</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F175" s="25"/>
       <c r="G175" s="26"/>
@@ -10246,10 +10557,10 @@
         <v>129</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F176" s="25"/>
       <c r="G176" s="26"/>
@@ -10280,10 +10591,10 @@
         <v>120</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F177" s="25"/>
       <c r="G177" s="26"/>
@@ -10314,10 +10625,10 @@
         <v>120</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E178" s="24" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F178" s="25"/>
       <c r="G178" s="26"/>
@@ -10348,10 +10659,10 @@
         <v>120</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F179" s="25"/>
       <c r="G179" s="26"/>
@@ -10382,10 +10693,10 @@
         <v>120</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E180" s="24" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F180" s="25"/>
       <c r="G180" s="26"/>
@@ -10416,10 +10727,10 @@
         <v>120</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F181" s="25"/>
       <c r="G181" s="26"/>
@@ -10450,10 +10761,10 @@
         <v>120</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F182" s="25"/>
       <c r="G182" s="26"/>
@@ -10484,10 +10795,10 @@
         <v>120</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E183" s="24" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F183" s="25"/>
       <c r="G183" s="26"/>
@@ -10518,10 +10829,10 @@
         <v>120</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F184" s="25"/>
       <c r="G184" s="26"/>
@@ -10552,10 +10863,10 @@
         <v>120</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E185" s="24" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F185" s="25"/>
       <c r="G185" s="26"/>
@@ -10586,10 +10897,10 @@
         <v>120</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F186" s="25"/>
       <c r="G186" s="26"/>
@@ -10620,10 +10931,10 @@
         <v>120</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F187" s="25"/>
       <c r="G187" s="26"/>
@@ -10654,10 +10965,10 @@
         <v>120</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F188" s="25"/>
       <c r="G188" s="26"/>
@@ -10688,10 +10999,10 @@
         <v>120</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E189" s="24" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F189" s="25"/>
       <c r="G189" s="26"/>
@@ -10722,10 +11033,10 @@
         <v>120</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F190" s="25"/>
       <c r="G190" s="26"/>
@@ -10756,10 +11067,10 @@
         <v>120</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E191" s="24" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F191" s="25"/>
       <c r="G191" s="26"/>
@@ -10790,10 +11101,10 @@
         <v>120</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E192" s="24" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F192" s="25"/>
       <c r="G192" s="26"/>
@@ -10824,10 +11135,10 @@
         <v>120</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E193" s="24" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F193" s="25"/>
       <c r="G193" s="26"/>
@@ -10858,10 +11169,10 @@
         <v>120</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F194" s="25"/>
       <c r="G194" s="26"/>
@@ -10892,10 +11203,10 @@
         <v>120</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F195" s="25"/>
       <c r="G195" s="26"/>
@@ -10926,10 +11237,10 @@
         <v>120</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F196" s="25"/>
       <c r="G196" s="26"/>
@@ -10960,10 +11271,10 @@
         <v>120</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F197" s="25"/>
       <c r="G197" s="26"/>
@@ -10994,10 +11305,10 @@
         <v>45</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E198" s="24" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F198" s="25"/>
       <c r="G198" s="26"/>
@@ -24588,7 +24899,7 @@
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -24605,136 +24916,136 @@
         <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="35" t="s">
         <v>524</v>
       </c>
+      <c r="C2" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>526</v>
+      <c r="B3" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>528</v>
+      <c r="B4" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>530</v>
+      <c r="B5" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>532</v>
+      <c r="B6" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>534</v>
+      <c r="B7" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>535</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>536</v>
+      <c r="B8" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>538</v>
+      <c r="B9" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C10" s="35" t="n">
+      <c r="A10" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" s="36" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>540</v>
+      <c r="D10" s="36" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -25747,7 +26058,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -25755,27 +26066,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>233</v>
+      <c r="A3" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
+++ b/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
@@ -652,35 +652,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">E’ stato rimosso artificiosamente il campo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">purpose_of_use</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dal JWT</t>
-    </r>
+    <t xml:space="preserve">E’ stato rimosso artificiosamente il campo purpose_of_use dal JWT</t>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -777,35 +749,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">E’ stato valorizzato con “TEST” il campo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"action_id" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">del JWT</t>
-    </r>
+    <t xml:space="preserve">E’ stato valorizzato con “TEST” il campo "action_id" del JWT</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
@@ -1050,30 +994,12 @@
     <t xml:space="preserve">{"traceID":"77b07fa1d087cd83","spanID":"77b07fa1d087cd83","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ee722b4318^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/syntax
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{"urn:hl7-org:v3":confidentialityCode}' is expected.
 status : 400
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso l’intero tag confidentialityCode</t>
@@ -1099,24 +1025,7 @@
     <t xml:space="preserve">{"traceID":"27b40790776231b1","spanID":"27b40790776231b1","type":"/msg/semantic","title":"Errore semantico.","detail":"[Errore-46| codice fiscale 'vllnrc75l27c129o' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fad30122d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [Errore-46| codice fiscale 'vllnrc75l27c129o' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1124,7 +1033,6 @@
 status : 422
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato inserito artificiosamente un codice fiscale con caratteri minuscoli sia nel JWT che nel CDA2</t>
@@ -1149,24 +1057,7 @@
     <t xml:space="preserve">{"traceID":"a611084c72450398","spanID":"a611084c72450398","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.82c5f20513^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1174,7 +1065,6 @@
 status : 422
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato inserito artificiosamente il valore “R”: “Rescticted” nel campo confidentialityCode</t>
@@ -1202,24 +1092,7 @@
     <t xml:space="preserve">{"traceID":"d22baf035c2d5400","spanID":"d22baf035c2d5400","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4e9b8059a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1227,7 +1100,6 @@
 status : 422
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso artificiosamente il tag &lt;city&gt; dall’indirizzo</t>
@@ -1253,24 +1125,7 @@
     <t xml:space="preserve">{"traceID":"be24513ac78682b1","spanID":"be24513ac78682b1","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ca85888fcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1278,7 +1133,6 @@
 status : 422
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso artificiosamente il tag &lt;given&gt;</t>
@@ -1304,30 +1158,12 @@
     <t xml:space="preserve">{"traceID":"f6af25f1efcdd009","spanID":"f6af25f1efcdd009","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: O]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b1b4865666^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/vocabulary
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/vocabulary
 title : Errore vocabolario.
 detail : Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: O]
 status : 400
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">All’interno dell’attributo code del tag administrativeGenderCode è stato forzato il valore “O”</t>
@@ -1353,30 +1189,12 @@
     <t xml:space="preserve">{"traceID":"2b7878fe8a6568f3","spanID":"2b7878fe8a6568f3","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: CODICE]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e287d36443^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/vocabulary
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/vocabulary
 title : Errore vocabolario.
 detail : Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: CODICE]
 status : 400
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ Sstato forzato il valore CODICE all’interno dell’attributo code del tag participant</t>
@@ -1402,24 +1220,7 @@
     <t xml:space="preserve">{"traceID":"372432c4c53b16c7","spanID":"372432c4c53b16c7","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0cb8abc55d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1427,7 +1228,6 @@
 status : 422
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Il campo priorityCode è stato riampito col valore “T”: "Timing critical”</t>
@@ -1452,30 +1252,12 @@
     <t xml:space="preserve">{"traceID":"aa6f9cf3b449dca5","spanID":"aa6f9cf3b449dca5","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f9a91b8868^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/syntax
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id}' is expected.
 status : 400
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag id all’interno del tag inFulfillmentOf</t>
@@ -1500,30 +1282,12 @@
     <t xml:space="preserve">{"traceID":"133ba35dc83886ac","spanID":"133ba35dc83886ac","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'text'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.28ccfdf49d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/syntax
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'text'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id, "urn:hl7-org:v3":code}' is expected.
 status : 400
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag code all’interno del tag act</t>
@@ -1537,47 +1301,29 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T23:23:55Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a60f0d239c2d1bbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ca0033b4f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"traceID":"a60f0d239c2d1bbe","spanID":"a60f0d239c2d1bbe","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ca0033b4f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">2023-03-10T16:13:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaec1dea6221105d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f821c74ba8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"traceID":"aaec1dea6221105d","spanID":"aaec1dea6221105d","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b4| Sezione Referto: DEVE essere presente la sezione \"Referto\".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f821c74ba8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
-detail : [ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
+detail : [ERRORE-b4| Sezione Referto: DEVE essere presente la sezione "Referto".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
 			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103']
 status : 422
 instance : /validation/error
 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">E’ stato artificiosamente rimosso il tag text all’interno del referto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E’ stato artificiosamente rimossa l’intera sezione REFERTO</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -1600,24 +1346,7 @@
     <t xml:space="preserve">{"traceID":"ddca3d413e2ac54d","spanID":"ddca3d413e2ac54d","type":"/msg/semantic","title":"Errore semantico.","detail":"[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4758ea11dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1625,7 +1354,6 @@
 status : 422
 instance : /validation/error
 2</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag text all’interno della section PRECEDENTI_ESAMI_ESEGUITI</t>
@@ -1706,24 +1434,7 @@
     <t xml:space="preserve">{"traceID":"f17e0a15eb0b75bf","spanID":"f17e0a15eb0b75bf","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8bd8bf0317^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOG con seguente messaggio: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type : /msg/semantic
+    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1731,7 +1442,6 @@
 status : 422
 instance : /validation/error
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stata artificiosamente settata la tipologia d’accesso col valore “ACAC”</t>
@@ -2581,7 +2291,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2664,12 +2374,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2790,7 +2494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2927,10 +2631,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3136,7 +2836,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -4214,14 +3914,14 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N92" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="S46" activeCellId="0" sqref="S46"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="S93" activeCellId="0" sqref="S93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -7084,7 +6784,7 @@
       <c r="O82" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P82" s="34" t="s">
+      <c r="P82" s="27" t="s">
         <v>212</v>
       </c>
       <c r="Q82" s="27"/>
@@ -7140,7 +6840,7 @@
       <c r="O83" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P83" s="34" t="s">
+      <c r="P83" s="27" t="s">
         <v>220</v>
       </c>
       <c r="Q83" s="27"/>
@@ -7196,7 +6896,7 @@
       <c r="O84" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P84" s="34" t="s">
+      <c r="P84" s="27" t="s">
         <v>228</v>
       </c>
       <c r="Q84" s="27"/>
@@ -7252,7 +6952,7 @@
       <c r="O85" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P85" s="34" t="s">
+      <c r="P85" s="27" t="s">
         <v>237</v>
       </c>
       <c r="Q85" s="27"/>
@@ -7308,7 +7008,7 @@
       <c r="O86" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P86" s="34" t="s">
+      <c r="P86" s="27" t="s">
         <v>245</v>
       </c>
       <c r="Q86" s="27"/>
@@ -7364,7 +7064,7 @@
       <c r="O87" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P87" s="34" t="s">
+      <c r="P87" s="27" t="s">
         <v>253</v>
       </c>
       <c r="Q87" s="27"/>
@@ -7420,7 +7120,7 @@
       <c r="O88" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P88" s="34" t="s">
+      <c r="P88" s="27" t="s">
         <v>261</v>
       </c>
       <c r="Q88" s="27"/>
@@ -7476,7 +7176,7 @@
       <c r="O89" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P89" s="34" t="s">
+      <c r="P89" s="27" t="s">
         <v>269</v>
       </c>
       <c r="Q89" s="27"/>
@@ -7532,7 +7232,7 @@
       <c r="O90" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P90" s="34" t="s">
+      <c r="P90" s="27" t="s">
         <v>277</v>
       </c>
       <c r="Q90" s="27"/>
@@ -7588,7 +7288,7 @@
       <c r="O91" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P91" s="34" t="s">
+      <c r="P91" s="27" t="s">
         <v>285</v>
       </c>
       <c r="Q91" s="27"/>
@@ -7600,7 +7300,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="22" t="n">
         <v>85</v>
       </c>
@@ -7617,7 +7317,7 @@
         <v>288</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="G92" s="26" t="s">
         <v>289</v>
@@ -7644,7 +7344,7 @@
       <c r="O92" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P92" s="34" t="s">
+      <c r="P92" s="27" t="s">
         <v>293</v>
       </c>
       <c r="Q92" s="27"/>
@@ -7700,7 +7400,7 @@
       <c r="O93" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P93" s="34" t="s">
+      <c r="P93" s="27" t="s">
         <v>301</v>
       </c>
       <c r="Q93" s="27"/>
@@ -7984,7 +7684,7 @@
       <c r="O100" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P100" s="34" t="s">
+      <c r="P100" s="27" t="s">
         <v>324</v>
       </c>
       <c r="Q100" s="27"/>
@@ -24899,7 +24599,7 @@
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -24923,128 +24623,128 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="C10" s="36" t="n">
+      <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>542</v>
       </c>
     </row>
@@ -26058,7 +25758,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -26066,26 +25766,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>235</v>
       </c>
     </row>

--- a/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
+++ b/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="540">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -430,13 +430,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-07T23:22:34Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209dcb5d6391ab59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0721577b31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la sezione opzionale "DICOM Object Catalog" in quanto non è gestita dall'applicativo</t>
   </si>
   <si>
     <t xml:space="preserve">Il test è stato completato senza la sezione opzionale "DICOM Object Catalog" in quanto non è gestita dall'applicativo</t>
@@ -448,15 +445,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-07T23:22:39Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a26a7d8950ae674e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3c42d1474e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">CERT_VAC</t>
@@ -1086,9 +1074,6 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4e9b8059a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"traceID":"d22baf035c2d5400","spanID":"d22baf035c2d5400","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4e9b8059a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
@@ -2291,7 +2276,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2365,6 +2350,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -2494,7 +2485,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2619,11 +2610,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2713,7 +2708,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF4C4C4C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2836,7 +2831,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -3914,14 +3909,14 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
       <selection pane="bottomRight" activeCell="S93" activeCellId="0" sqref="S93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -4566,7 +4561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="120.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="n">
         <v>13</v>
       </c>
@@ -4582,22 +4577,16 @@
       <c r="E21" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="25" t="n">
-        <v>44992</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="K21" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="31"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -4605,14 +4594,14 @@
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="28"/>
-      <c r="S21" s="31" t="s">
-        <v>83</v>
+      <c r="S21" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="T21" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="120.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
         <v>14</v>
       </c>
@@ -4623,27 +4612,21 @@
         <v>66</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="25" t="n">
-        <v>44992</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="31"/>
+        <v>80</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -4651,8 +4634,8 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
-      <c r="S22" s="31" t="s">
-        <v>83</v>
+      <c r="S22" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="T22" s="30" t="s">
         <v>48</v>
@@ -4666,13 +4649,13 @@
         <v>44</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -4700,13 +4683,13 @@
         <v>44</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
@@ -4734,13 +4717,13 @@
         <v>44</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
@@ -4768,13 +4751,13 @@
         <v>44</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
@@ -4802,13 +4785,13 @@
         <v>44</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
@@ -4836,13 +4819,13 @@
         <v>44</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
@@ -4870,13 +4853,13 @@
         <v>44</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
@@ -4904,13 +4887,13 @@
         <v>44</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
@@ -4938,13 +4921,13 @@
         <v>44</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="26"/>
@@ -4972,13 +4955,13 @@
         <v>44</v>
       </c>
       <c r="C32" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="26"/>
@@ -5006,13 +4989,13 @@
         <v>44</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="26"/>
@@ -5040,13 +5023,13 @@
         <v>44</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="26"/>
@@ -5077,10 +5060,10 @@
         <v>45</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="26"/>
@@ -5097,7 +5080,7 @@
       <c r="R35" s="28"/>
       <c r="S35" s="29"/>
       <c r="T35" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="120.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,10 +5094,10 @@
         <v>57</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="26"/>
@@ -5131,7 +5114,7 @@
       <c r="R36" s="28"/>
       <c r="S36" s="29"/>
       <c r="T36" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="120.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,13 +5125,13 @@
         <v>44</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="32" t="s">
         <v>117</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
@@ -5165,7 +5148,7 @@
       <c r="R37" s="28"/>
       <c r="S37" s="29"/>
       <c r="T37" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="148.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,22 +5162,22 @@
         <v>66</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F38" s="25" t="n">
         <v>44995</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J38" s="27" t="s">
         <v>72</v>
@@ -5207,21 +5190,21 @@
         <v>72</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O38" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="27"/>
       <c r="R38" s="28"/>
       <c r="S38" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T38" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,13 +5215,13 @@
         <v>44</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="26"/>
@@ -5253,9 +5236,9 @@
       <c r="P39" s="27"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="28"/>
-      <c r="S39" s="33"/>
+      <c r="S39" s="34"/>
       <c r="T39" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5266,13 +5249,13 @@
         <v>44</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="26"/>
@@ -5289,7 +5272,7 @@
       <c r="R40" s="28"/>
       <c r="S40" s="29"/>
       <c r="T40" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,13 +5283,13 @@
         <v>44</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="26"/>
@@ -5323,7 +5306,7 @@
       <c r="R41" s="28"/>
       <c r="S41" s="29"/>
       <c r="T41" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,13 +5317,13 @@
         <v>44</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="26"/>
@@ -5357,7 +5340,7 @@
       <c r="R42" s="28"/>
       <c r="S42" s="29"/>
       <c r="T42" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,10 +5354,10 @@
         <v>45</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="26"/>
@@ -5391,7 +5374,7 @@
       <c r="R43" s="28"/>
       <c r="S43" s="29"/>
       <c r="T43" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,10 +5388,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="26"/>
@@ -5425,7 +5408,7 @@
       <c r="R44" s="28"/>
       <c r="S44" s="29"/>
       <c r="T44" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,13 +5419,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="26"/>
@@ -5459,7 +5442,7 @@
       <c r="R45" s="28"/>
       <c r="S45" s="29"/>
       <c r="T45" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5473,22 +5456,22 @@
         <v>66</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F46" s="25" t="n">
         <v>44995</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J46" s="27" t="s">
         <v>72</v>
@@ -5501,21 +5484,21 @@
         <v>72</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O46" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q46" s="27"/>
       <c r="R46" s="28"/>
       <c r="S46" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T46" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,13 +5509,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="26"/>
@@ -5547,9 +5530,9 @@
       <c r="P47" s="27"/>
       <c r="Q47" s="27"/>
       <c r="R47" s="28"/>
-      <c r="S47" s="33"/>
+      <c r="S47" s="34"/>
       <c r="T47" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,13 +5543,13 @@
         <v>44</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="26"/>
@@ -5583,7 +5566,7 @@
       <c r="R48" s="28"/>
       <c r="S48" s="29"/>
       <c r="T48" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5594,13 +5577,13 @@
         <v>44</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="26"/>
@@ -5617,7 +5600,7 @@
       <c r="R49" s="28"/>
       <c r="S49" s="29"/>
       <c r="T49" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,13 +5611,13 @@
         <v>44</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>135</v>
+        <v>143</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="26"/>
@@ -5651,7 +5634,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="29"/>
       <c r="T50" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,10 +5648,10 @@
         <v>45</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="26"/>
@@ -5687,7 +5670,7 @@
       </c>
       <c r="S51" s="29"/>
       <c r="T51" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,10 +5684,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F52" s="25"/>
       <c r="G52" s="26"/>
@@ -5723,7 +5706,7 @@
       </c>
       <c r="S52" s="29"/>
       <c r="T52" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,13 +5717,13 @@
         <v>44</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="26"/>
@@ -5759,7 +5742,7 @@
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,16 +5756,16 @@
         <v>66</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F54" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
@@ -5797,13 +5780,13 @@
         <v>72</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O54" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P54" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q54" s="27"/>
       <c r="R54" s="28" t="s">
@@ -5811,7 +5794,7 @@
       </c>
       <c r="S54" s="29"/>
       <c r="T54" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,13 +5805,13 @@
         <v>44</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="26"/>
@@ -5847,7 +5830,7 @@
       </c>
       <c r="S55" s="29"/>
       <c r="T55" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,13 +5841,13 @@
         <v>44</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="26"/>
@@ -5883,7 +5866,7 @@
       </c>
       <c r="S56" s="29"/>
       <c r="T56" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,13 +5877,13 @@
         <v>44</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="26"/>
@@ -5919,7 +5902,7 @@
       </c>
       <c r="S57" s="29"/>
       <c r="T57" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5930,13 +5913,13 @@
         <v>44</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="26"/>
@@ -5955,7 +5938,7 @@
       </c>
       <c r="S58" s="29"/>
       <c r="T58" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5969,10 +5952,10 @@
         <v>45</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="26"/>
@@ -5989,7 +5972,7 @@
       <c r="R59" s="28"/>
       <c r="S59" s="29"/>
       <c r="T59" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,10 +5986,10 @@
         <v>45</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="26"/>
@@ -6023,7 +6006,7 @@
       <c r="R60" s="28"/>
       <c r="S60" s="29"/>
       <c r="T60" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,10 +6020,10 @@
         <v>45</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="26"/>
@@ -6057,7 +6040,7 @@
       <c r="R61" s="28"/>
       <c r="S61" s="29"/>
       <c r="T61" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,10 +6054,10 @@
         <v>45</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="26"/>
@@ -6091,7 +6074,7 @@
       <c r="R62" s="28"/>
       <c r="S62" s="29"/>
       <c r="T62" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,10 +6088,10 @@
         <v>45</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="26"/>
@@ -6125,7 +6108,7 @@
       <c r="R63" s="28"/>
       <c r="S63" s="29"/>
       <c r="T63" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,10 +6122,10 @@
         <v>45</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="26"/>
@@ -6159,7 +6142,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,10 +6156,10 @@
         <v>45</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="26"/>
@@ -6193,7 +6176,7 @@
       <c r="R65" s="28"/>
       <c r="S65" s="29"/>
       <c r="T65" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6207,10 +6190,10 @@
         <v>45</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F66" s="25"/>
       <c r="G66" s="26"/>
@@ -6227,7 +6210,7 @@
       <c r="R66" s="28"/>
       <c r="S66" s="29"/>
       <c r="T66" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,10 +6224,10 @@
         <v>45</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="26"/>
@@ -6261,7 +6244,7 @@
       <c r="R67" s="28"/>
       <c r="S67" s="29"/>
       <c r="T67" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6275,10 +6258,10 @@
         <v>45</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="26"/>
@@ -6295,7 +6278,7 @@
       <c r="R68" s="28"/>
       <c r="S68" s="29"/>
       <c r="T68" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,10 +6292,10 @@
         <v>45</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
@@ -6329,7 +6312,7 @@
       <c r="R69" s="28"/>
       <c r="S69" s="29"/>
       <c r="T69" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,10 +6326,10 @@
         <v>57</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="26"/>
@@ -6363,7 +6346,7 @@
       <c r="R70" s="28"/>
       <c r="S70" s="29"/>
       <c r="T70" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6377,10 +6360,10 @@
         <v>57</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="26"/>
@@ -6397,7 +6380,7 @@
       <c r="R71" s="28"/>
       <c r="S71" s="29"/>
       <c r="T71" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,10 +6394,10 @@
         <v>57</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="26"/>
@@ -6431,7 +6414,7 @@
       <c r="R72" s="28"/>
       <c r="S72" s="29"/>
       <c r="T72" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,10 +6428,10 @@
         <v>57</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="26"/>
@@ -6465,7 +6448,7 @@
       <c r="R73" s="28"/>
       <c r="S73" s="29"/>
       <c r="T73" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,10 +6462,10 @@
         <v>57</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="26"/>
@@ -6499,7 +6482,7 @@
       <c r="R74" s="28"/>
       <c r="S74" s="29"/>
       <c r="T74" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,10 +6496,10 @@
         <v>57</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="26"/>
@@ -6533,7 +6516,7 @@
       <c r="R75" s="28"/>
       <c r="S75" s="29"/>
       <c r="T75" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,10 +6530,10 @@
         <v>57</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="26"/>
@@ -6567,7 +6550,7 @@
       <c r="R76" s="28"/>
       <c r="S76" s="29"/>
       <c r="T76" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,10 +6564,10 @@
         <v>57</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="26"/>
@@ -6601,7 +6584,7 @@
       <c r="R77" s="28"/>
       <c r="S77" s="29"/>
       <c r="T77" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,10 +6598,10 @@
         <v>57</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="26"/>
@@ -6635,7 +6618,7 @@
       <c r="R78" s="28"/>
       <c r="S78" s="29"/>
       <c r="T78" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6649,10 +6632,10 @@
         <v>57</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F79" s="25"/>
       <c r="G79" s="26"/>
@@ -6669,7 +6652,7 @@
       <c r="R79" s="28"/>
       <c r="S79" s="29"/>
       <c r="T79" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,10 +6666,10 @@
         <v>57</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F80" s="25"/>
       <c r="G80" s="26"/>
@@ -6703,7 +6686,7 @@
       <c r="R80" s="28"/>
       <c r="S80" s="29"/>
       <c r="T80" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,10 +6700,10 @@
         <v>57</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F81" s="25"/>
       <c r="G81" s="26"/>
@@ -6737,7 +6720,7 @@
       <c r="R81" s="28"/>
       <c r="S81" s="29"/>
       <c r="T81" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="187.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,22 +6734,22 @@
         <v>66</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F82" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J82" s="27" t="s">
         <v>72</v>
@@ -6779,21 +6762,21 @@
         <v>72</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O82" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P82" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q82" s="27"/>
       <c r="R82" s="28"/>
       <c r="S82" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="T82" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,22 +6790,22 @@
         <v>66</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F83" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J83" s="27" t="s">
         <v>72</v>
@@ -6835,21 +6818,21 @@
         <v>72</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O83" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P83" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q83" s="27"/>
       <c r="R83" s="28"/>
       <c r="S83" s="30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T83" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="309.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,22 +6846,22 @@
         <v>66</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F84" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J84" s="27" t="s">
         <v>72</v>
@@ -6891,21 +6874,21 @@
         <v>72</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O84" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P84" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q84" s="27"/>
       <c r="R84" s="28"/>
       <c r="S84" s="30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T84" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="281.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,22 +6902,22 @@
         <v>66</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F85" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J85" s="27" t="s">
         <v>72</v>
@@ -6944,24 +6927,24 @@
         <v>72</v>
       </c>
       <c r="M85" s="27" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="N85" s="27" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O85" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P85" s="27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q85" s="27"/>
       <c r="R85" s="28"/>
       <c r="S85" s="30" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="T85" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="281.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6975,22 +6958,22 @@
         <v>66</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F86" s="25" t="n">
         <v>44993</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J86" s="27" t="s">
         <v>72</v>
@@ -7000,24 +6983,24 @@
         <v>72</v>
       </c>
       <c r="M86" s="27" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="N86" s="27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O86" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P86" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q86" s="27"/>
       <c r="R86" s="28"/>
       <c r="S86" s="30" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="T86" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="174.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,22 +7014,22 @@
         <v>66</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F87" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J87" s="27" t="s">
         <v>72</v>
@@ -7056,24 +7039,24 @@
         <v>72</v>
       </c>
       <c r="M87" s="27" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="N87" s="27" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O87" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P87" s="27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q87" s="27"/>
       <c r="R87" s="28"/>
       <c r="S87" s="30" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="T87" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="187.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,22 +7070,22 @@
         <v>66</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F88" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J88" s="27" t="s">
         <v>72</v>
@@ -7112,24 +7095,24 @@
         <v>72</v>
       </c>
       <c r="M88" s="27" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O88" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P88" s="27" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q88" s="27"/>
       <c r="R88" s="28"/>
       <c r="S88" s="30" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="T88" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="309.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7143,22 +7126,22 @@
         <v>66</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F89" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J89" s="27" t="s">
         <v>72</v>
@@ -7171,21 +7154,21 @@
         <v>72</v>
       </c>
       <c r="N89" s="27" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O89" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P89" s="27" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q89" s="27"/>
       <c r="R89" s="28"/>
       <c r="S89" s="30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="T89" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="228.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,22 +7182,22 @@
         <v>66</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F90" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J90" s="27" t="s">
         <v>72</v>
@@ -7227,21 +7210,21 @@
         <v>72</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O90" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P90" s="27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q90" s="27"/>
       <c r="R90" s="28"/>
       <c r="S90" s="30" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="T90" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="214.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,22 +7238,22 @@
         <v>66</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F91" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J91" s="27" t="s">
         <v>72</v>
@@ -7283,21 +7266,21 @@
         <v>72</v>
       </c>
       <c r="N91" s="27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O91" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P91" s="27" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q91" s="27"/>
       <c r="R91" s="28"/>
       <c r="S91" s="30" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="T91" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,22 +7294,22 @@
         <v>66</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F92" s="25" t="n">
         <v>44995</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J92" s="27" t="s">
         <v>72</v>
@@ -7339,21 +7322,21 @@
         <v>72</v>
       </c>
       <c r="N92" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O92" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P92" s="27" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q92" s="27"/>
       <c r="R92" s="28"/>
       <c r="S92" s="30" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="T92" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,22 +7350,22 @@
         <v>66</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F93" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J93" s="27" t="s">
         <v>72</v>
@@ -7395,21 +7378,21 @@
         <v>72</v>
       </c>
       <c r="N93" s="27" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O93" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P93" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q93" s="27"/>
       <c r="R93" s="28"/>
       <c r="S93" s="30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="T93" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="120.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,20 +7406,20 @@
         <v>66</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
       <c r="J94" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K94" s="31" t="s">
-        <v>305</v>
+        <v>80</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="L94" s="27"/>
       <c r="M94" s="27"/>
@@ -7447,7 +7430,7 @@
       <c r="R94" s="28"/>
       <c r="S94" s="29"/>
       <c r="T94" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="107.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,20 +7444,20 @@
         <v>66</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
       <c r="J95" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K95" s="31" t="s">
-        <v>308</v>
+        <v>80</v>
+      </c>
+      <c r="K95" s="32" t="s">
+        <v>303</v>
       </c>
       <c r="L95" s="27"/>
       <c r="M95" s="27"/>
@@ -7485,7 +7468,7 @@
       <c r="R95" s="28"/>
       <c r="S95" s="29"/>
       <c r="T95" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="93.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,20 +7482,20 @@
         <v>66</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
       <c r="J96" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K96" s="31" t="s">
-        <v>311</v>
+        <v>80</v>
+      </c>
+      <c r="K96" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="L96" s="27"/>
       <c r="M96" s="27"/>
@@ -7523,7 +7506,7 @@
       <c r="R96" s="28"/>
       <c r="S96" s="29"/>
       <c r="T96" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="93.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,20 +7520,20 @@
         <v>66</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F97" s="25"/>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
       <c r="J97" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K97" s="31" t="s">
-        <v>311</v>
+        <v>80</v>
+      </c>
+      <c r="K97" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="L97" s="27"/>
       <c r="M97" s="27"/>
@@ -7561,7 +7544,7 @@
       <c r="R97" s="28"/>
       <c r="S97" s="29"/>
       <c r="T97" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="107.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,20 +7558,20 @@
         <v>66</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F98" s="25"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K98" s="31" t="s">
-        <v>311</v>
+        <v>80</v>
+      </c>
+      <c r="K98" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="L98" s="27"/>
       <c r="M98" s="27"/>
@@ -7599,7 +7582,7 @@
       <c r="R98" s="28"/>
       <c r="S98" s="29"/>
       <c r="T98" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="107.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,20 +7596,20 @@
         <v>66</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F99" s="25"/>
       <c r="G99" s="26"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="K99" s="31" t="s">
-        <v>308</v>
+        <v>80</v>
+      </c>
+      <c r="K99" s="32" t="s">
+        <v>303</v>
       </c>
       <c r="L99" s="27"/>
       <c r="M99" s="27"/>
@@ -7637,7 +7620,7 @@
       <c r="R99" s="28"/>
       <c r="S99" s="29"/>
       <c r="T99" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="321.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7651,22 +7634,22 @@
         <v>66</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F100" s="25" t="n">
         <v>44992</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J100" s="27" t="s">
         <v>72</v>
@@ -7679,21 +7662,21 @@
         <v>72</v>
       </c>
       <c r="N100" s="27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O100" s="27" t="s">
         <v>72</v>
       </c>
       <c r="P100" s="27" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q100" s="27"/>
       <c r="R100" s="28"/>
       <c r="S100" s="30" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="T100" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7704,13 +7687,13 @@
         <v>44</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="26"/>
@@ -7727,7 +7710,7 @@
       <c r="R101" s="28"/>
       <c r="S101" s="29"/>
       <c r="T101" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7738,13 +7721,13 @@
         <v>44</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="26"/>
@@ -7761,7 +7744,7 @@
       <c r="R102" s="28"/>
       <c r="S102" s="29"/>
       <c r="T102" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7772,13 +7755,13 @@
         <v>44</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="26"/>
@@ -7795,7 +7778,7 @@
       <c r="R103" s="28"/>
       <c r="S103" s="29"/>
       <c r="T103" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,13 +7789,13 @@
         <v>44</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="26"/>
@@ -7829,7 +7812,7 @@
       <c r="R104" s="28"/>
       <c r="S104" s="29"/>
       <c r="T104" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7840,13 +7823,13 @@
         <v>44</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="26"/>
@@ -7863,7 +7846,7 @@
       <c r="R105" s="28"/>
       <c r="S105" s="29"/>
       <c r="T105" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,13 +7857,13 @@
         <v>44</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F106" s="25"/>
       <c r="G106" s="26"/>
@@ -7897,7 +7880,7 @@
       <c r="R106" s="28"/>
       <c r="S106" s="29"/>
       <c r="T106" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7908,13 +7891,13 @@
         <v>44</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F107" s="25"/>
       <c r="G107" s="26"/>
@@ -7931,7 +7914,7 @@
       <c r="R107" s="28"/>
       <c r="S107" s="29"/>
       <c r="T107" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7942,13 +7925,13 @@
         <v>44</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F108" s="25"/>
       <c r="G108" s="26"/>
@@ -7965,7 +7948,7 @@
       <c r="R108" s="28"/>
       <c r="S108" s="29"/>
       <c r="T108" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7976,13 +7959,13 @@
         <v>44</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F109" s="25"/>
       <c r="G109" s="26"/>
@@ -7999,7 +7982,7 @@
       <c r="R109" s="28"/>
       <c r="S109" s="29"/>
       <c r="T109" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8010,13 +7993,13 @@
         <v>44</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F110" s="25"/>
       <c r="G110" s="26"/>
@@ -8033,7 +8016,7 @@
       <c r="R110" s="28"/>
       <c r="S110" s="29"/>
       <c r="T110" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8044,13 +8027,13 @@
         <v>44</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F111" s="25"/>
       <c r="G111" s="26"/>
@@ -8067,7 +8050,7 @@
       <c r="R111" s="28"/>
       <c r="S111" s="29"/>
       <c r="T111" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,13 +8061,13 @@
         <v>44</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F112" s="25"/>
       <c r="G112" s="26"/>
@@ -8101,7 +8084,7 @@
       <c r="R112" s="28"/>
       <c r="S112" s="29"/>
       <c r="T112" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="131" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,13 +8095,13 @@
         <v>44</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F113" s="25"/>
       <c r="G113" s="26"/>
@@ -8135,7 +8118,7 @@
       <c r="R113" s="28"/>
       <c r="S113" s="29"/>
       <c r="T113" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8146,13 +8129,13 @@
         <v>44</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F114" s="25"/>
       <c r="G114" s="26"/>
@@ -8169,7 +8152,7 @@
       <c r="R114" s="28"/>
       <c r="S114" s="29"/>
       <c r="T114" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,13 +8163,13 @@
         <v>44</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F115" s="25"/>
       <c r="G115" s="26"/>
@@ -8203,7 +8186,7 @@
       <c r="R115" s="28"/>
       <c r="S115" s="29"/>
       <c r="T115" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8214,13 +8197,13 @@
         <v>44</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F116" s="25"/>
       <c r="G116" s="26"/>
@@ -8237,7 +8220,7 @@
       <c r="R116" s="28"/>
       <c r="S116" s="29"/>
       <c r="T116" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8248,13 +8231,13 @@
         <v>44</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F117" s="25"/>
       <c r="G117" s="26"/>
@@ -8271,7 +8254,7 @@
       <c r="R117" s="28"/>
       <c r="S117" s="29"/>
       <c r="T117" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,13 +8265,13 @@
         <v>44</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F118" s="25"/>
       <c r="G118" s="26"/>
@@ -8305,7 +8288,7 @@
       <c r="R118" s="28"/>
       <c r="S118" s="29"/>
       <c r="T118" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8316,13 +8299,13 @@
         <v>44</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F119" s="25"/>
       <c r="G119" s="26"/>
@@ -8339,7 +8322,7 @@
       <c r="R119" s="28"/>
       <c r="S119" s="29"/>
       <c r="T119" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8350,13 +8333,13 @@
         <v>44</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F120" s="25"/>
       <c r="G120" s="26"/>
@@ -8373,7 +8356,7 @@
       <c r="R120" s="28"/>
       <c r="S120" s="29"/>
       <c r="T120" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8384,13 +8367,13 @@
         <v>44</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F121" s="25"/>
       <c r="G121" s="26"/>
@@ -8407,7 +8390,7 @@
       <c r="R121" s="28"/>
       <c r="S121" s="29"/>
       <c r="T121" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,13 +8401,13 @@
         <v>44</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F122" s="25"/>
       <c r="G122" s="26"/>
@@ -8441,7 +8424,7 @@
       <c r="R122" s="28"/>
       <c r="S122" s="29"/>
       <c r="T122" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,13 +8435,13 @@
         <v>44</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F123" s="25"/>
       <c r="G123" s="26"/>
@@ -8475,7 +8458,7 @@
       <c r="R123" s="28"/>
       <c r="S123" s="29"/>
       <c r="T123" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8486,13 +8469,13 @@
         <v>44</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F124" s="25"/>
       <c r="G124" s="26"/>
@@ -8509,7 +8492,7 @@
       <c r="R124" s="28"/>
       <c r="S124" s="29"/>
       <c r="T124" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8520,13 +8503,13 @@
         <v>44</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F125" s="25"/>
       <c r="G125" s="26"/>
@@ -8543,7 +8526,7 @@
       <c r="R125" s="28"/>
       <c r="S125" s="29"/>
       <c r="T125" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,13 +8537,13 @@
         <v>44</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F126" s="25"/>
       <c r="G126" s="26"/>
@@ -8577,7 +8560,7 @@
       <c r="R126" s="28"/>
       <c r="S126" s="29"/>
       <c r="T126" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8588,13 +8571,13 @@
         <v>44</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F127" s="25"/>
       <c r="G127" s="26"/>
@@ -8611,7 +8594,7 @@
       <c r="R127" s="28"/>
       <c r="S127" s="29"/>
       <c r="T127" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8622,13 +8605,13 @@
         <v>44</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F128" s="25"/>
       <c r="G128" s="26"/>
@@ -8645,7 +8628,7 @@
       <c r="R128" s="28"/>
       <c r="S128" s="29"/>
       <c r="T128" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8656,13 +8639,13 @@
         <v>44</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F129" s="25"/>
       <c r="G129" s="26"/>
@@ -8679,7 +8662,7 @@
       <c r="R129" s="28"/>
       <c r="S129" s="29"/>
       <c r="T129" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,13 +8673,13 @@
         <v>44</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F130" s="25"/>
       <c r="G130" s="26"/>
@@ -8713,7 +8696,7 @@
       <c r="R130" s="28"/>
       <c r="S130" s="29"/>
       <c r="T130" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8724,13 +8707,13 @@
         <v>44</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F131" s="25"/>
       <c r="G131" s="26"/>
@@ -8747,7 +8730,7 @@
       <c r="R131" s="28"/>
       <c r="S131" s="29"/>
       <c r="T131" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8758,13 +8741,13 @@
         <v>44</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F132" s="25"/>
       <c r="G132" s="26"/>
@@ -8781,7 +8764,7 @@
       <c r="R132" s="28"/>
       <c r="S132" s="29"/>
       <c r="T132" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8792,13 +8775,13 @@
         <v>44</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F133" s="25"/>
       <c r="G133" s="26"/>
@@ -8815,7 +8798,7 @@
       <c r="R133" s="28"/>
       <c r="S133" s="29"/>
       <c r="T133" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,13 +8809,13 @@
         <v>44</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F134" s="25"/>
       <c r="G134" s="26"/>
@@ -8849,7 +8832,7 @@
       <c r="R134" s="28"/>
       <c r="S134" s="29"/>
       <c r="T134" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8860,13 +8843,13 @@
         <v>44</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F135" s="25"/>
       <c r="G135" s="26"/>
@@ -8883,7 +8866,7 @@
       <c r="R135" s="28"/>
       <c r="S135" s="29"/>
       <c r="T135" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8894,13 +8877,13 @@
         <v>44</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F136" s="25"/>
       <c r="G136" s="26"/>
@@ -8917,7 +8900,7 @@
       <c r="R136" s="28"/>
       <c r="S136" s="29"/>
       <c r="T136" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8928,13 +8911,13 @@
         <v>44</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F137" s="25"/>
       <c r="G137" s="26"/>
@@ -8951,7 +8934,7 @@
       <c r="R137" s="28"/>
       <c r="S137" s="29"/>
       <c r="T137" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,13 +8945,13 @@
         <v>44</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F138" s="25"/>
       <c r="G138" s="26"/>
@@ -8985,7 +8968,7 @@
       <c r="R138" s="28"/>
       <c r="S138" s="29"/>
       <c r="T138" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8996,13 +8979,13 @@
         <v>44</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="26"/>
@@ -9019,7 +9002,7 @@
       <c r="R139" s="28"/>
       <c r="S139" s="29"/>
       <c r="T139" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9030,13 +9013,13 @@
         <v>44</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F140" s="25"/>
       <c r="G140" s="26"/>
@@ -9053,7 +9036,7 @@
       <c r="R140" s="28"/>
       <c r="S140" s="29"/>
       <c r="T140" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9064,13 +9047,13 @@
         <v>44</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F141" s="25"/>
       <c r="G141" s="26"/>
@@ -9087,7 +9070,7 @@
       <c r="R141" s="28"/>
       <c r="S141" s="29"/>
       <c r="T141" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9098,13 +9081,13 @@
         <v>44</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F142" s="25"/>
       <c r="G142" s="26"/>
@@ -9121,7 +9104,7 @@
       <c r="R142" s="28"/>
       <c r="S142" s="29"/>
       <c r="T142" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9132,13 +9115,13 @@
         <v>44</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F143" s="25"/>
       <c r="G143" s="26"/>
@@ -9155,7 +9138,7 @@
       <c r="R143" s="28"/>
       <c r="S143" s="29"/>
       <c r="T143" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,13 +9149,13 @@
         <v>44</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="26"/>
@@ -9189,7 +9172,7 @@
       <c r="R144" s="28"/>
       <c r="S144" s="29"/>
       <c r="T144" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,13 +9183,13 @@
         <v>44</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F145" s="25"/>
       <c r="G145" s="26"/>
@@ -9223,7 +9206,7 @@
       <c r="R145" s="28"/>
       <c r="S145" s="29"/>
       <c r="T145" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9234,13 +9217,13 @@
         <v>44</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F146" s="25"/>
       <c r="G146" s="26"/>
@@ -9257,7 +9240,7 @@
       <c r="R146" s="28"/>
       <c r="S146" s="29"/>
       <c r="T146" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9268,13 +9251,13 @@
         <v>44</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F147" s="25"/>
       <c r="G147" s="26"/>
@@ -9291,7 +9274,7 @@
       <c r="R147" s="28"/>
       <c r="S147" s="29"/>
       <c r="T147" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9302,13 +9285,13 @@
         <v>44</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F148" s="25"/>
       <c r="G148" s="26"/>
@@ -9325,7 +9308,7 @@
       <c r="R148" s="28"/>
       <c r="S148" s="29"/>
       <c r="T148" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9336,13 +9319,13 @@
         <v>44</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F149" s="25"/>
       <c r="G149" s="26"/>
@@ -9359,7 +9342,7 @@
       <c r="R149" s="28"/>
       <c r="S149" s="29"/>
       <c r="T149" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9370,13 +9353,13 @@
         <v>44</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E150" s="24" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F150" s="25"/>
       <c r="G150" s="26"/>
@@ -9393,7 +9376,7 @@
       <c r="R150" s="28"/>
       <c r="S150" s="29"/>
       <c r="T150" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9404,13 +9387,13 @@
         <v>44</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E151" s="24" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F151" s="25"/>
       <c r="G151" s="26"/>
@@ -9427,7 +9410,7 @@
       <c r="R151" s="28"/>
       <c r="S151" s="29"/>
       <c r="T151" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9438,13 +9421,13 @@
         <v>44</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F152" s="25"/>
       <c r="G152" s="26"/>
@@ -9461,7 +9444,7 @@
       <c r="R152" s="28"/>
       <c r="S152" s="29"/>
       <c r="T152" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9472,13 +9455,13 @@
         <v>44</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F153" s="25"/>
       <c r="G153" s="26"/>
@@ -9495,7 +9478,7 @@
       <c r="R153" s="28"/>
       <c r="S153" s="29"/>
       <c r="T153" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="160" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9506,13 +9489,13 @@
         <v>44</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F154" s="25"/>
       <c r="G154" s="26"/>
@@ -9540,13 +9523,13 @@
         <v>44</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F155" s="25"/>
       <c r="G155" s="26"/>
@@ -9574,13 +9557,13 @@
         <v>44</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F156" s="25"/>
       <c r="G156" s="26"/>
@@ -9608,13 +9591,13 @@
         <v>44</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F157" s="25"/>
       <c r="G157" s="26"/>
@@ -9642,13 +9625,13 @@
         <v>44</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F158" s="25"/>
       <c r="G158" s="26"/>
@@ -9665,7 +9648,7 @@
       <c r="R158" s="28"/>
       <c r="S158" s="29"/>
       <c r="T158" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9676,13 +9659,13 @@
         <v>44</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E159" s="24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="26"/>
@@ -9699,7 +9682,7 @@
       <c r="R159" s="28"/>
       <c r="S159" s="29"/>
       <c r="T159" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,13 +9693,13 @@
         <v>44</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E160" s="24" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F160" s="25"/>
       <c r="G160" s="26"/>
@@ -9733,7 +9716,7 @@
       <c r="R160" s="28"/>
       <c r="S160" s="29"/>
       <c r="T160" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,13 +9727,13 @@
         <v>44</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F161" s="25"/>
       <c r="G161" s="26"/>
@@ -9767,7 +9750,7 @@
       <c r="R161" s="28"/>
       <c r="S161" s="29"/>
       <c r="T161" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9778,13 +9761,13 @@
         <v>44</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F162" s="25"/>
       <c r="G162" s="26"/>
@@ -9801,7 +9784,7 @@
       <c r="R162" s="28"/>
       <c r="S162" s="29"/>
       <c r="T162" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,13 +9795,13 @@
         <v>44</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F163" s="25"/>
       <c r="G163" s="26"/>
@@ -9835,7 +9818,7 @@
       <c r="R163" s="28"/>
       <c r="S163" s="29"/>
       <c r="T163" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9846,13 +9829,13 @@
         <v>44</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F164" s="25"/>
       <c r="G164" s="26"/>
@@ -9869,7 +9852,7 @@
       <c r="R164" s="28"/>
       <c r="S164" s="29"/>
       <c r="T164" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9880,13 +9863,13 @@
         <v>44</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F165" s="25"/>
       <c r="G165" s="26"/>
@@ -9903,7 +9886,7 @@
       <c r="R165" s="28"/>
       <c r="S165" s="29"/>
       <c r="T165" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9914,13 +9897,13 @@
         <v>44</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F166" s="25"/>
       <c r="G166" s="26"/>
@@ -9937,7 +9920,7 @@
       <c r="R166" s="28"/>
       <c r="S166" s="29"/>
       <c r="T166" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9948,13 +9931,13 @@
         <v>44</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F167" s="25"/>
       <c r="G167" s="26"/>
@@ -9971,7 +9954,7 @@
       <c r="R167" s="28"/>
       <c r="S167" s="29"/>
       <c r="T167" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9982,13 +9965,13 @@
         <v>44</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F168" s="25"/>
       <c r="G168" s="26"/>
@@ -10005,7 +9988,7 @@
       <c r="R168" s="28"/>
       <c r="S168" s="29"/>
       <c r="T168" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10016,13 +9999,13 @@
         <v>44</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F169" s="25"/>
       <c r="G169" s="26"/>
@@ -10039,7 +10022,7 @@
       <c r="R169" s="28"/>
       <c r="S169" s="29"/>
       <c r="T169" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10050,13 +10033,13 @@
         <v>44</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F170" s="25"/>
       <c r="G170" s="26"/>
@@ -10073,7 +10056,7 @@
       <c r="R170" s="28"/>
       <c r="S170" s="29"/>
       <c r="T170" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10084,13 +10067,13 @@
         <v>44</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E171" s="24" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F171" s="25"/>
       <c r="G171" s="26"/>
@@ -10107,7 +10090,7 @@
       <c r="R171" s="28"/>
       <c r="S171" s="29"/>
       <c r="T171" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,13 +10101,13 @@
         <v>44</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F172" s="25"/>
       <c r="G172" s="26"/>
@@ -10141,7 +10124,7 @@
       <c r="R172" s="28"/>
       <c r="S172" s="29"/>
       <c r="T172" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,13 +10135,13 @@
         <v>44</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F173" s="25"/>
       <c r="G173" s="26"/>
@@ -10175,7 +10158,7 @@
       <c r="R173" s="28"/>
       <c r="S173" s="29"/>
       <c r="T173" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,13 +10169,13 @@
         <v>44</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E174" s="24" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F174" s="25"/>
       <c r="G174" s="26"/>
@@ -10209,7 +10192,7 @@
       <c r="R174" s="28"/>
       <c r="S174" s="29"/>
       <c r="T174" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10220,13 +10203,13 @@
         <v>44</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F175" s="25"/>
       <c r="G175" s="26"/>
@@ -10243,7 +10226,7 @@
       <c r="R175" s="28"/>
       <c r="S175" s="29"/>
       <c r="T175" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="129.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10254,13 +10237,13 @@
         <v>44</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F176" s="25"/>
       <c r="G176" s="26"/>
@@ -10277,7 +10260,7 @@
       <c r="R176" s="28"/>
       <c r="S176" s="29"/>
       <c r="T176" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="145.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10288,13 +10271,13 @@
         <v>44</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F177" s="25"/>
       <c r="G177" s="26"/>
@@ -10322,13 +10305,13 @@
         <v>44</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E178" s="24" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F178" s="25"/>
       <c r="G178" s="26"/>
@@ -10356,13 +10339,13 @@
         <v>44</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F179" s="25"/>
       <c r="G179" s="26"/>
@@ -10390,13 +10373,13 @@
         <v>44</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E180" s="24" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F180" s="25"/>
       <c r="G180" s="26"/>
@@ -10424,13 +10407,13 @@
         <v>44</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F181" s="25"/>
       <c r="G181" s="26"/>
@@ -10447,7 +10430,7 @@
       <c r="R181" s="28"/>
       <c r="S181" s="29"/>
       <c r="T181" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10458,13 +10441,13 @@
         <v>44</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F182" s="25"/>
       <c r="G182" s="26"/>
@@ -10481,7 +10464,7 @@
       <c r="R182" s="28"/>
       <c r="S182" s="29"/>
       <c r="T182" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10492,13 +10475,13 @@
         <v>44</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E183" s="24" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F183" s="25"/>
       <c r="G183" s="26"/>
@@ -10515,7 +10498,7 @@
       <c r="R183" s="28"/>
       <c r="S183" s="29"/>
       <c r="T183" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10526,13 +10509,13 @@
         <v>44</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F184" s="25"/>
       <c r="G184" s="26"/>
@@ -10549,7 +10532,7 @@
       <c r="R184" s="28"/>
       <c r="S184" s="29"/>
       <c r="T184" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10560,13 +10543,13 @@
         <v>44</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E185" s="24" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F185" s="25"/>
       <c r="G185" s="26"/>
@@ -10583,7 +10566,7 @@
       <c r="R185" s="28"/>
       <c r="S185" s="29"/>
       <c r="T185" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10594,13 +10577,13 @@
         <v>44</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F186" s="25"/>
       <c r="G186" s="26"/>
@@ -10617,7 +10600,7 @@
       <c r="R186" s="28"/>
       <c r="S186" s="29"/>
       <c r="T186" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10628,13 +10611,13 @@
         <v>44</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F187" s="25"/>
       <c r="G187" s="26"/>
@@ -10651,7 +10634,7 @@
       <c r="R187" s="28"/>
       <c r="S187" s="29"/>
       <c r="T187" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="102" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10662,13 +10645,13 @@
         <v>44</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F188" s="25"/>
       <c r="G188" s="26"/>
@@ -10685,7 +10668,7 @@
       <c r="R188" s="28"/>
       <c r="S188" s="29"/>
       <c r="T188" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10696,13 +10679,13 @@
         <v>44</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E189" s="24" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F189" s="25"/>
       <c r="G189" s="26"/>
@@ -10719,7 +10702,7 @@
       <c r="R189" s="28"/>
       <c r="S189" s="29"/>
       <c r="T189" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10730,13 +10713,13 @@
         <v>44</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F190" s="25"/>
       <c r="G190" s="26"/>
@@ -10753,7 +10736,7 @@
       <c r="R190" s="28"/>
       <c r="S190" s="29"/>
       <c r="T190" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10764,13 +10747,13 @@
         <v>44</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E191" s="24" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F191" s="25"/>
       <c r="G191" s="26"/>
@@ -10787,7 +10770,7 @@
       <c r="R191" s="28"/>
       <c r="S191" s="29"/>
       <c r="T191" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10798,13 +10781,13 @@
         <v>44</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E192" s="24" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F192" s="25"/>
       <c r="G192" s="26"/>
@@ -10821,7 +10804,7 @@
       <c r="R192" s="28"/>
       <c r="S192" s="29"/>
       <c r="T192" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,13 +10815,13 @@
         <v>44</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E193" s="24" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F193" s="25"/>
       <c r="G193" s="26"/>
@@ -10855,7 +10838,7 @@
       <c r="R193" s="28"/>
       <c r="S193" s="29"/>
       <c r="T193" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10866,13 +10849,13 @@
         <v>44</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F194" s="25"/>
       <c r="G194" s="26"/>
@@ -10889,7 +10872,7 @@
       <c r="R194" s="28"/>
       <c r="S194" s="29"/>
       <c r="T194" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10900,13 +10883,13 @@
         <v>44</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F195" s="25"/>
       <c r="G195" s="26"/>
@@ -10923,7 +10906,7 @@
       <c r="R195" s="28"/>
       <c r="S195" s="29"/>
       <c r="T195" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10934,13 +10917,13 @@
         <v>44</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F196" s="25"/>
       <c r="G196" s="26"/>
@@ -10957,7 +10940,7 @@
       <c r="R196" s="28"/>
       <c r="S196" s="29"/>
       <c r="T196" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="116.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10968,13 +10951,13 @@
         <v>44</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F197" s="25"/>
       <c r="G197" s="26"/>
@@ -10991,7 +10974,7 @@
       <c r="R197" s="28"/>
       <c r="S197" s="29"/>
       <c r="T197" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="145" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11005,10 +10988,10 @@
         <v>45</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E198" s="24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F198" s="25"/>
       <c r="G198" s="26"/>
@@ -24599,7 +24582,7 @@
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -24616,136 +24599,136 @@
         <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="36" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="34" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D4" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="D2" s="35" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="D3" s="35" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="D4" s="36" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="D5" s="35" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="D8" s="37" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="36" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="D7" s="36" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="B10" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="36" t="n">
+        <v>191</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>537</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>541</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C10" s="35" t="n">
-        <v>191</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -25758,7 +25741,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -25766,27 +25749,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>544</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>235</v>
+      <c r="A3" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
+++ b/GATEWAY/A1#111MIMEDICAL00/mimedical/webrap3/webrap3/report-checklist.xlsx
@@ -632,7 +632,9 @@
     <t xml:space="preserve">{"traceID":"a3f75b964c0133ed","spanID":"a3f75b964c0133ed","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/jwt-validation
+    <t xml:space="preserve">Il referto viene prodotto comunque in modo da permettere l’invio manuale in qualsiasi momento 
+ --- 
+Viene prodotto un LOG con seguente messaggio: type : /msg/jwt-validation
 title : Campo token JWT non valido.
 detail : Il campo purpose_of_use non è valorizzato
 status : 403
@@ -729,12 +731,13 @@
     <t xml:space="preserve">{"traceID":"aa9ce8e586c093b1","spanID":"aa9ce8e586c093b1","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/jwt-validation
+    <t xml:space="preserve">Il referto viene prodotto comunque in modo da permettere l’invio manuale in qualsiasi momento 
+ --- 
+Viene prodotto un LOG con seguente messaggio: type : /msg/jwt-validation
 title : Campo token JWT non valido.
 detail : Il campo action_id non è corretto
 status : 403
-instance : /jwt-mandatory-field-malformed
-</t>
+instance : /jwt-mandatory-field-malformed</t>
   </si>
   <si>
     <t xml:space="preserve">E’ stato valorizzato con “TEST” il campo "action_id" del JWT</t>
@@ -774,7 +777,9 @@
     <t xml:space="preserve">Timeot durante il tentativo di connessione al Gateway per la validazione</t>
   </si>
   <si>
-    <t xml:space="preserve">ALERT e LOG con seguente messaggio: Timeot durante il tentativo di connessione al Gateway per la validazione</t>
+    <t xml:space="preserve">ALERT e LOG con seguente messaggio: Timeot durante il tentativo di connessione al Gateway per la validazione
+ --- 
+Il referto viene accodato e reinviato per un numero di volte variabile da configurazione; oltre questo numero di invii è possibile reinviare il referto soltanto manualmente.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -982,7 +987,9 @@
     <t xml:space="preserve">{"traceID":"77b07fa1d087cd83","spanID":"77b07fa1d087cd83","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ee722b4318^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/syntax
+    <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: type : /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{"urn:hl7-org:v3":confidentialityCode}' is expected.
 status : 400
@@ -1013,7 +1020,9 @@
     <t xml:space="preserve">{"traceID":"27b40790776231b1","spanID":"27b40790776231b1","type":"/msg/semantic","title":"Errore semantico.","detail":"[Errore-46| codice fiscale 'vllnrc75l27c129o' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fad30122d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: type : /msg/semantic
 title : Errore semantico.
 detail : [Errore-46| codice fiscale 'vllnrc75l27c129o' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1045,7 +1054,10 @@
     <t xml:space="preserve">{"traceID":"a611084c72450398","spanID":"a611084c72450398","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.82c5f20513^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1077,14 +1089,16 @@
     <t xml:space="preserve">{"traceID":"d22baf035c2d5400","spanID":"d22baf035c2d5400","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4e9b8059a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+type : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
 			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103']
 status : 422
-instance : /validation/error
-</t>
+instance : /validation/error</t>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso artificiosamente il tag &lt;city&gt; dall’indirizzo</t>
@@ -1110,7 +1124,27 @@
     <t xml:space="preserve">{"traceID":"be24513ac78682b1","spanID":"be24513ac78682b1","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ca85888fcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+Type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1118,6 +1152,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato rimosso artificiosamente il tag &lt;given&gt;</t>
@@ -1174,12 +1209,33 @@
     <t xml:space="preserve">{"traceID":"2b7878fe8a6568f3","spanID":"2b7878fe8a6568f3","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: CODICE]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e287d36443^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/vocabulary
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : /msg/vocabulary
 title : Errore vocabolario.
 detail : Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: CODICE]
 status : 400
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ Sstato forzato il valore CODICE all’interno dell’attributo code del tag participant</t>
@@ -1205,7 +1261,27 @@
     <t xml:space="preserve">{"traceID":"372432c4c53b16c7","spanID":"372432c4c53b16c7","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0cb8abc55d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1213,6 +1289,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Il campo priorityCode è stato riampito col valore “T”: "Timing critical”</t>
@@ -1237,12 +1314,33 @@
     <t xml:space="preserve">{"traceID":"aa6f9cf3b449dca5","spanID":"aa6f9cf3b449dca5","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f9a91b8868^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/syntax
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: /msg/syntax
 title : Errore di sintassi.
 detail : ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{"urn:hl7-org:v3":realmCode, "urn:hl7-org:v3":typeId, "urn:hl7-org:v3":templateId, "urn:hl7-org:v3":id}' is expected.
 status : 400
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag id all’interno del tag inFulfillmentOf</t>
@@ -1298,7 +1396,27 @@
     <t xml:space="preserve">{"traceID":"aaec1dea6221105d","spanID":"aaec1dea6221105d","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b4| Sezione Referto: DEVE essere presente la sezione \"Referto\".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f821c74ba8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-b4| Sezione Referto: DEVE essere presente la sezione "Referto".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1306,6 +1424,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimossa l’intera sezione REFERTO</t>
@@ -1331,7 +1450,27 @@
     <t xml:space="preserve">{"traceID":"ddca3d413e2ac54d","spanID":"ddca3d413e2ac54d","type":"/msg/semantic","title":"Errore semantico.","detail":"[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4758ea11dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : /msg/semantic
 title : Errore semantico.
 detail : [W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1339,6 +1478,7 @@
 status : 422
 instance : /validation/error
 2</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stato artificiosamente rimosso il tag text all’interno della section PRECEDENTI_ESAMI_ESEGUITI</t>
@@ -1419,7 +1559,27 @@
     <t xml:space="preserve">{"traceID":"f17e0a15eb0b75bf","spanID":"f17e0a15eb0b75bf","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.150.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8bd8bf0317^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG con seguente messaggio: type : /msg/semantic
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Viene mostrato all'utente il messaggio "ERRORE DI VALIDAZIONE" con il riferimento al log dell'errore dove viene salvato il messaggio dettagliato
+---
+Nel log viene riportato il seguente messaggio: 
+Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: /msg/semantic
 title : Errore semantico.
 detail : [ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
 			LOINC @codeSystem='2.16.840.1.113883.6.1'
@@ -1427,6 +1587,7 @@
 status : 422
 instance : /validation/error
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">E’ stata artificiosamente settata la tipologia d’accesso col valore “ACAC”</t>
@@ -2276,7 +2437,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2356,6 +2517,7 @@
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2365,6 +2527,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2485,7 +2653,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2626,6 +2794,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2742,7 +2914,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2831,7 +3003,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.09"/>
@@ -3909,14 +4081,14 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
-      <selection pane="bottomRight" activeCell="S93" activeCellId="0" sqref="S93"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="P54" activeCellId="0" sqref="P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -5151,7 +5323,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="148.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="228.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
         <v>31</v>
       </c>
@@ -5445,7 +5617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="201.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
         <v>39</v>
       </c>
@@ -5489,7 +5661,7 @@
       <c r="O46" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P46" s="27" t="s">
+      <c r="P46" s="35" t="s">
         <v>138</v>
       </c>
       <c r="Q46" s="27"/>
@@ -5745,7 +5917,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="160.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="n">
         <v>47</v>
       </c>
@@ -6723,7 +6895,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="187.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="268.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="22" t="n">
         <v>75</v>
       </c>
@@ -6779,7 +6951,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="348.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="22" t="n">
         <v>76</v>
       </c>
@@ -6835,7 +7007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="309.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="415.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="n">
         <v>77</v>
       </c>
@@ -6891,7 +7063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="281.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="376.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="n">
         <v>78</v>
       </c>
@@ -6947,7 +7119,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="281.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="389.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="22" t="n">
         <v>79</v>
       </c>
@@ -6991,7 +7163,7 @@
       <c r="O86" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P86" s="27" t="s">
+      <c r="P86" s="35" t="s">
         <v>240</v>
       </c>
       <c r="Q86" s="27"/>
@@ -7059,7 +7231,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="187.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="22" t="n">
         <v>81</v>
       </c>
@@ -7103,7 +7275,7 @@
       <c r="O88" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P88" s="27" t="s">
+      <c r="P88" s="35" t="s">
         <v>256</v>
       </c>
       <c r="Q88" s="27"/>
@@ -7115,7 +7287,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="309.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="415.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="22" t="n">
         <v>82</v>
       </c>
@@ -7159,7 +7331,7 @@
       <c r="O89" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P89" s="27" t="s">
+      <c r="P89" s="35" t="s">
         <v>264</v>
       </c>
       <c r="Q89" s="27"/>
@@ -7171,7 +7343,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="228.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="309.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="22" t="n">
         <v>83</v>
       </c>
@@ -7215,7 +7387,7 @@
       <c r="O90" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P90" s="27" t="s">
+      <c r="P90" s="35" t="s">
         <v>272</v>
       </c>
       <c r="Q90" s="27"/>
@@ -7283,7 +7455,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="402.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="22" t="n">
         <v>85</v>
       </c>
@@ -7327,7 +7499,7 @@
       <c r="O92" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P92" s="27" t="s">
+      <c r="P92" s="35" t="s">
         <v>288</v>
       </c>
       <c r="Q92" s="27"/>
@@ -7339,7 +7511,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="254.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="362.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="22" t="n">
         <v>86</v>
       </c>
@@ -7383,7 +7555,7 @@
       <c r="O93" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P93" s="27" t="s">
+      <c r="P93" s="35" t="s">
         <v>296</v>
       </c>
       <c r="Q93" s="27"/>
@@ -7623,7 +7795,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="321.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="429.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="22" t="n">
         <v>93</v>
       </c>
@@ -7667,7 +7839,7 @@
       <c r="O100" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="P100" s="27" t="s">
+      <c r="P100" s="35" t="s">
         <v>319</v>
       </c>
       <c r="Q100" s="27"/>
@@ -24582,7 +24754,7 @@
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -24606,128 +24778,128 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="C10" s="36" t="n">
+      <c r="C10" s="37" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>537</v>
       </c>
     </row>
@@ -25741,7 +25913,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -25749,26 +25921,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>80</v>
       </c>
     </row>
